--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,211 +483,357 @@
           <t>Днепр</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>333650644</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Житомир</t>
+          <t>Днепр</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>513905699</t>
+          <t>310796091</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Запорожье</t>
+          <t>Днепр</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>401848467</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Каменское</t>
+          <t>Житомир</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Луцк</t>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>525934688</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Львов</t>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1414287395</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Мариуполь</t>
+          <t>Запорожье</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>264262717</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Николаев</t>
+          <t>Каменское</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>333650644</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Одесса</t>
+          <t>Каменское</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>310796091</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Полтава</t>
+          <t>Каменское</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>401848467</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ровно</t>
+          <t>Луцк</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Тернополь</t>
+          <t>Львов</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Харьков</t>
+          <t>Мариуполь</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>471125560</t>
+          <t>546802359</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Херсон</t>
+          <t>Николаев</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Хмельницкий</t>
+          <t>Одесса</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Черкассы</t>
+          <t>Полтава</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ровно</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Тернополь</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>564605214</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>901627344</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Харьков</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>471125560</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Херсон</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Хмельницкий</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Черкассы</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Чернигов</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>471125560</t>
         </is>
       </c>
     </row>
@@ -702,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,51 +949,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ТВ Чернигов Кирпоноса 26</t>
+          <t>ТВ Днепр Нагорка</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ТВ Черкаси Смилянская 45</t>
+          <t>ТВ Чернигов Кирпоноса 26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ТВ Хмельницкий Лыбидь Плаза</t>
+          <t>ТВ Черкаси Смилянская 45</t>
         </is>
       </c>
     </row>
@@ -859,29 +1005,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ТВ Хмельницкий Вуд Молл</t>
+          <t>ТВ Хмельницкий Лыбидь Плаза</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ТВ Херсон Ушакова 45</t>
+          <t>ТВ Хмельницкий Вуд Молл</t>
         </is>
       </c>
     </row>
@@ -893,29 +1039,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ТВ Херсон Некрасова 29</t>
+          <t>ТВ Херсон Ушакова 45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ТВ Харьков Ярослава Мудрого</t>
+          <t>ТВ Херсон Некрасова 29</t>
         </is>
       </c>
     </row>
@@ -927,46 +1073,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ТВ Харьков, Полтавский Шлях 140</t>
+          <t>ТВ Харьков Ярослава Мудрого</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ТВ Днепр Кодак</t>
+          <t>ТВ Харьков, Полтавский Шлях 140</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ТВ Харьков Нетеченская 25</t>
+          <t>ТВ Днепр Кодак</t>
         </is>
       </c>
     </row>
@@ -978,12 +1124,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ТВ Харьков Людвига Свободы 28</t>
+          <t>ТВ Харьков Нетеченская 25</t>
         </is>
       </c>
     </row>
@@ -995,12 +1141,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ТВ Харьков Героев Труда 29г</t>
+          <t>ТВ Харьков Людвига Свободы 28</t>
         </is>
       </c>
     </row>
@@ -1012,80 +1158,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ТВ Харьков, СД Клочковская 9а</t>
+          <t>ТВ Харьков Героев Труда 29г</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ТВ Тернополь Шептицкого 20</t>
+          <t>ТВ Харьков, СД Клочковская 9а</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ТВ Ровно Арена</t>
+          <t>ТВ Тернополь Шептицкого 20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ТВ Полтава Небесной сотни 10</t>
+          <t>ТВ Ровно Арена</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ТВ Одесса Преображенская 45а</t>
+          <t>ТВ Полтава Небесной сотни 10</t>
         </is>
       </c>
     </row>
@@ -1097,12 +1243,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ТВ Одесса Глушко 17</t>
+          <t>ТВ Одесса Преображенская 45а</t>
         </is>
       </c>
     </row>
@@ -1114,46 +1260,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ТВ Одесса Семафорный 4Т</t>
+          <t>ТВ Одесса Глушко 17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ТВ Днепр Апполо</t>
+          <t>ТВ Одесса Семафорный 4Т</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ТВ Одесса Сахарова 1Б</t>
+          <t>ТВ Днепр Апполо</t>
         </is>
       </c>
     </row>
@@ -1165,29 +1311,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ТВ Одесса Лип 13А</t>
+          <t>ТВ Одесса Сахарова 1Б</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ТВ Одесса Сахарова 1Б</t>
+          <t>ТВ Одесса Лип 13А</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1345,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ТВ Одесса Глушко 17</t>
+          <t>ТВ Одесса Сахарова 1Б</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1362,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ТВ Одесса Преображенская 45а</t>
+          <t>ТВ Одесса Глушко 17</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1379,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ТВ Николаев пр-т Богоявленский</t>
+          <t>ТВ Одесса Преображенская 45а</t>
         </is>
       </c>
     </row>
@@ -1250,46 +1396,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ТВ Николаев Центральный 171/2</t>
+          <t>ТВ Николаев пр-т Богоявленский</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ТВ Мариуполь Порт Сити</t>
+          <t>ТВ Николаев Центральный 171/2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ТВ Львов Шувар</t>
+          <t>ТВ Мариуполь Порт Сити</t>
         </is>
       </c>
     </row>
@@ -1301,80 +1447,80 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ТВ Львов Спартак</t>
+          <t>ТВ Львов Шувар</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ТВ Винница Пирогова 8</t>
+          <t>ТВ Львов Спартак</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ТВ Львов Виктория Гарден</t>
+          <t>ТВ Винница Пирогова 8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ТВ Луцк Воли 15</t>
+          <t>ТВ Львов Виктория Гарден</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ТВ Запорожье,ул. Сытова, 4А</t>
+          <t>ТВ Луцк Воли 15</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1532,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ТВ Запорожье, Бородинская 9</t>
+          <t>ТВ Запорожье,ул. Сытова, 4А</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1549,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ТВ Запорожье Украина</t>
+          <t>ТВ Запорожье, Бородинская 9</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1566,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ТВ Запорожье Соборный 44</t>
+          <t>ТВ Запорожье Украина</t>
         </is>
       </c>
     </row>
@@ -1437,46 +1583,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ТВ Запорожье Соборный 222</t>
+          <t>ТВ Запорожье Соборный 44</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ТВ Житомир Киевская 106</t>
+          <t>ТВ Запорожье Соборный 222</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ТВ Днепр Паникахи</t>
+          <t>ТВ Житомир Киевская 106</t>
         </is>
       </c>
     </row>
@@ -1488,27 +1634,78 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ТВ Днепр Поля</t>
+          <t>ТВ Днепр Паникахи</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ТВ Днепр Поля</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Харьков, ТВ Юбилейный 89</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Днепр, ТВ Каменское 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>ТВ Винница Коцюбинского 78а</t>
         </is>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -18,12 +18,15 @@
     <sheet name="delivery" sheetId="4" r:id="rId4"/>
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$A$1:$D$90</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -34,157 +37,220 @@
     <t>access</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Винница</t>
+  </si>
+  <si>
+    <t>1414287395</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Днепр</t>
+  </si>
+  <si>
+    <t>333650644</t>
+  </si>
+  <si>
+    <t>310796091</t>
+  </si>
+  <si>
+    <t>401848467</t>
+  </si>
+  <si>
+    <t>766808380</t>
+  </si>
+  <si>
+    <t>333199863</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Житомир</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Запорожье</t>
+  </si>
+  <si>
+    <t>525934688</t>
+  </si>
+  <si>
+    <t>264262717</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Каменское</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Луцк</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Львов</t>
+  </si>
+  <si>
+    <t>844782656</t>
+  </si>
+  <si>
+    <t>555435397</t>
+  </si>
+  <si>
+    <t>471125560</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Мариуполь</t>
+  </si>
+  <si>
+    <t>546802359</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Николаев</t>
+  </si>
+  <si>
+    <t>606045221</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Одесса</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Полтава</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Ровно</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Тернополь</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Харьков</t>
+  </si>
+  <si>
+    <t>564605214</t>
+  </si>
+  <si>
+    <t>901627344</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Херсон</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Хмельницкий</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Черкассы</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Чернигов</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>Кривой Рог</t>
   </si>
   <si>
-    <t>310796091</t>
-  </si>
-  <si>
-    <t>471125560</t>
-  </si>
-  <si>
     <t>913008476</t>
   </si>
   <si>
-    <t>333199863</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Чернигов</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Черкассы</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Хмельницкий</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Херсон</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Харьков</t>
-  </si>
-  <si>
-    <t>564605214</t>
-  </si>
-  <si>
-    <t>901627344</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Тернополь</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Ровно</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Полтава</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Одесса</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Николаев</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Мариуполь</t>
-  </si>
-  <si>
-    <t>546802359</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Львов</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Луцк</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Каменское</t>
-  </si>
-  <si>
-    <t>333650644</t>
-  </si>
-  <si>
-    <t>401848467</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Запорожье</t>
-  </si>
-  <si>
-    <t>525934688</t>
-  </si>
-  <si>
-    <t>1414287395</t>
-  </si>
-  <si>
-    <t>264262717</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Житомир</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Днепр</t>
-  </si>
-  <si>
-    <t>766808380</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Винница</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Южный</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Сумы</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Кропивницкий</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Павлоград</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Александрия</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Ужгород</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Черновцы</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Хмельницький</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск</t>
   </si>
   <si>
     <t>id_city</t>
@@ -196,294 +262,282 @@
     <t>address</t>
   </si>
   <si>
-    <t>ТВ Днепр Ломаная, 2</t>
-  </si>
-  <si>
-    <t>ТВ Каменское Свободы 53</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Яворницкого</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>ТВ вул. Січових Стрільців 68</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>ТВ Трудова 6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ТВ Кам'янецька 21</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>ТВ вул.Незалежності 119</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>ТВ площа Шендора Петефі 17</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>ТВ Олександрія Соборний 100а</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>ТВ Павлоград Горького 164</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Бол Перспективная 47</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>ТВ ул.Харьковская 2/1</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>ТВ ул.Кооперативная 1</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>ТВ Григорьевского Десанта,3</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Харьков, Стадионный 5а</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>ТВ Днепр Шолохова 7</t>
+    <t>Днепр, Кропивницкое</t>
   </si>
   <si>
     <t>59</t>
   </si>
   <si>
-    <t>Харьков, Стадионный 5а</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
-    <t>Днепр, Кропивницкое</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
-    <t>Днепр, Павлоград</t>
+    <t>Кривой Рог, Волгоградская 9</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>Харьков, Александровский 156</t>
+    <t>Кривой Рог, Содружества 66А</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>Кривой Рог, Волгоградская 9</t>
+    <t>Кривой Рог, Космонавтов 3а</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>Кривой Рог, Содружества 66А</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
-    <t>Кривой Рог, Космонавтов 3а</t>
+    <t>Харьков, Героев Сталинграда 179</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>Днепр, Б.Хмельницкого</t>
+    <t>Харьков, Науки 64</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>Харьков, Героев Сталинграда 179</t>
+    <t>Днепр, Каменское Свободы 53</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>Харьков, Науки 64</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Нагорка</t>
+    <t>Кривой Рог, ТВ Лермонтова 22</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>Днепр, Каменское Свободы 53</t>
+    <t>ТВ Чернигов Кирпоноса 26</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>Кривой Рог, ТВ Лермонтова 22</t>
+    <t>ТВ Черкаси Смилянская 45</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>ТВ Чернигов Кирпоноса 26</t>
+    <t>ТВ Хмельницкий Лыбидь Плаза</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>ТВ Черкаси Смилянская 45</t>
+    <t>ТВ Хмельницкий Вуд Молл</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>ТВ Хмельницкий Лыбидь Плаза</t>
+    <t>ТВ Херсон Ушакова 45</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>ТВ Хмельницкий Вуд Молл</t>
+    <t>ТВ Херсон Некрасова 29</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>ТВ Херсон Ушакова 45</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>ТВ Херсон Некрасова 29</t>
+    <t>ТВ Харьков, Полтавский Шлях 140</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>ТВ Харьков Ярослава Мудрого</t>
+    <t>ТВ Харьков Нетеченская 25</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>ТВ Харьков, Полтавский Шлях 140</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Кодак</t>
+    <t>ТВ Харьков Людвига Свободы 28</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>ТВ Харьков Нетеченская 25</t>
+    <t>ТВ Харьков Героев Труда 29г</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>ТВ Харьков Людвига Свободы 28</t>
+    <t>ТВ Харьков, СД Клочковская 9а</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>ТВ Харьков Героев Труда 29г</t>
+    <t>ТВ Тернополь Шептицкого 20</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>ТВ Харьков, СД Клочковская 9а</t>
+    <t>ТВ Ровно Арена</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>ТВ Тернополь Шептицкого 20</t>
+    <t>ТВ Полтава Небесной сотни 10</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>ТВ Ровно Арена</t>
+    <t>ТВ Одесса Преображенская 45а</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>ТВ Полтава Небесной сотни 10</t>
+    <t>ТВ Одесса Глушко 17</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>ТВ Одесса Преображенская 45а</t>
+    <t>ТВ Одесса Семафорный 4Т</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>ТВ Одесса Глушко 17</t>
+    <t>ТВ Одесса Сахарова 1Б</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>ТВ Одесса Семафорный 4Т</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Апполо</t>
+    <t>ТВ Одесса Лип 13А</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>ТВ Одесса Сахарова 1Б</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>ТВ Одесса Лип 13А</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>ТВ Николаев пр-т Богоявленский</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>ТВ Николаев Центральный 171/2</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>ТВ Мариуполь Порт Сити</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ТВ Львов Шувар</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>ТВ Львов Спартак</t>
+    <t>ТВ Луцк Воли 15</t>
   </si>
   <si>
     <t>ТВ Винница Пирогова 8</t>
   </si>
   <si>
-    <t>ТВ Львов Виктория Гарден</t>
-  </si>
-  <si>
-    <t>ТВ Луцк Воли 15</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье,ул. Сытова, 4А</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье, Бородинская 9</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Украина</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Соборный 44</t>
-  </si>
-  <si>
-    <t>ТВ Запорожье Соборный 222</t>
-  </si>
-  <si>
     <t>ТВ Житомир Киевская 106</t>
   </si>
   <si>
-    <t>ТВ Днепр Паникахи</t>
-  </si>
-  <si>
-    <t>ТВ Днепр Поля</t>
-  </si>
-  <si>
     <t>Харьков, ТВ Юбилейный 89</t>
   </si>
   <si>
@@ -496,6 +550,36 @@
     <t>Курьер</t>
   </si>
   <si>
+    <t>ТОВ БСК Логістик</t>
+  </si>
+  <si>
+    <t>ТОВ ВІП-КРУЇЗ</t>
+  </si>
+  <si>
+    <t>ТОВ Космос</t>
+  </si>
+  <si>
+    <t>ТОВ Нова Пошта</t>
+  </si>
+  <si>
+    <t>ТОВ ТЕК КООРДИНАТОР</t>
+  </si>
+  <si>
+    <t>ТОВ ТК Експерт</t>
+  </si>
+  <si>
+    <t>ТОВ ТОП Транс Украина</t>
+  </si>
+  <si>
+    <t>ФОП Васильківський Р.Ю.</t>
+  </si>
+  <si>
+    <t>ФОП Коноплястий О.В.</t>
+  </si>
+  <si>
+    <t>ФОП Колесник В.В.</t>
+  </si>
+  <si>
     <t>Неизвестно</t>
   </si>
   <si>
@@ -508,130 +592,169 @@
     <t>2т</t>
   </si>
   <si>
-    <t>Южный</t>
-  </si>
-  <si>
-    <t>Сумы</t>
-  </si>
-  <si>
-    <t>Кропивницкий</t>
-  </si>
-  <si>
-    <t>Павлоград</t>
-  </si>
-  <si>
-    <t>Александрия</t>
-  </si>
-  <si>
-    <t>Ужгород</t>
-  </si>
-  <si>
-    <t>Черновцы</t>
-  </si>
-  <si>
-    <t>Хмельницький</t>
-  </si>
-  <si>
-    <t>Ивано-Франковск</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>ТВ Григорьевского Десанта,3</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>ТВ ул.Кооперативная 1</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>ТВ ул.Харьковская 2/1</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>ТВ Кропивницкий Бол Перспективная 47</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>ТВ Павлоград Горького 164</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>ТВ Олександрія Соборний 100а</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>ТВ площа Шендора Петефі 17</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>ТВ вул.Незалежності 119</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>ТВ Кам'янецька 21</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>ТВ Трудова 6</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>ТВ вул. Січових Стрільців 68</t>
-  </si>
-  <si>
-    <t>ТОВ БСК Логістик</t>
-  </si>
-  <si>
-    <t>ТОВ ВІП-КРУЇЗ</t>
-  </si>
-  <si>
-    <t>ТОВ Космос</t>
-  </si>
-  <si>
-    <t>ТОВ Нова Пошта</t>
-  </si>
-  <si>
-    <t>ТОВ ТЕК КООРДИНАТОР</t>
-  </si>
-  <si>
-    <t>ТОВ ТК Експерт</t>
-  </si>
-  <si>
-    <t>ТОВ ТОП Транс Украина</t>
-  </si>
-  <si>
-    <t>ФОП Васильківський Р.Ю.</t>
-  </si>
-  <si>
-    <t>ФОП Коноплястий О.В.</t>
-  </si>
-  <si>
-    <t>ФОП Колесник В.В.</t>
+    <t>Николаев. Героев Украины 20к</t>
+  </si>
+  <si>
+    <t>Николаев. Мира 56в/2</t>
+  </si>
+  <si>
+    <t>Херсон пр. Св. Кирилла и Мифодия, 23 (открытие в ноябре)</t>
+  </si>
+  <si>
+    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
+  </si>
+  <si>
+    <t>Херсон, ул. Некрасова, 29</t>
+  </si>
+  <si>
+    <t>Львов вул. пр. Шевченка 24</t>
+  </si>
+  <si>
+    <t>Львов, вул. вул. Черновола 57</t>
+  </si>
+  <si>
+    <t>Львов, вул. Городецкая 8</t>
+  </si>
+  <si>
+    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
+  </si>
+  <si>
+    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Ломаная, 2</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Шолохова, 7</t>
+  </si>
+  <si>
+    <t>Днепр, вул. Паникахи, 61а</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Б. Хмельницького,123</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Поля, 8а</t>
+  </si>
+  <si>
+    <t>Каменское, пр-т Свободы, 53</t>
+  </si>
+  <si>
+    <t>Каменское 2: Бульвар Строителей 27А</t>
+  </si>
+  <si>
+    <t>Павлоград: ул. Горького 164- ТВ</t>
+  </si>
+  <si>
+    <t>Запорожье, Бородинская 9</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 222</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 44</t>
+  </si>
+  <si>
+    <t>Запорожье, ул. Сытова, 4А</t>
+  </si>
+  <si>
+    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
+  </si>
+  <si>
+    <t>Харьков, пр-т. Александровский 156</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Навощенный ряд 2</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Преображенская, 45а</t>
+  </si>
+  <si>
+    <t>Одеса, пр-т Адмиральский, 1</t>
+  </si>
+  <si>
+    <t>Одесса ул. Левитана, 118</t>
+  </si>
+  <si>
+    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
+  </si>
+  <si>
+    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Заболотного, 52</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Сахарова, 1Б</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
+  </si>
+  <si>
+    <t>Южный, пр-т Героев Обороны 3.</t>
+  </si>
+  <si>
+    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
+  </si>
+  <si>
+    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -984,17 +1109,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,1303 +1134,1486 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C38">
-    <sortCondition ref="A2:A38"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>140</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>134</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>131</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>125</v>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>118</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>114</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
+        <v>31</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>99</v>
+        <v>31</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
+        <v>31</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
+        <v>31</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
+        <v>31</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
+        <v>36</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" t="s">
-        <v>170</v>
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" t="s">
-        <v>171</v>
+        <v>42</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" t="s">
-        <v>175</v>
+        <v>42</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" t="s">
-        <v>179</v>
+        <v>42</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" t="s">
-        <v>183</v>
+        <v>46</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
         <v>129</v>
-      </c>
-      <c r="B71" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
         <v>127</v>
       </c>
-      <c r="B73" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" t="s">
-        <v>192</v>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D63">
-    <sortCondition ref="B2:B63"/>
+  <autoFilter ref="A1:D90">
+    <sortState ref="A2:D90">
+      <sortCondition ref="A2:A90"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:D76">
+    <sortCondition ref="A2:A76"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD30"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,98 +2629,266 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>157</v>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2442,26 +2917,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$A$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$A$1:$D$83</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -427,15 +427,9 @@
     <t>45</t>
   </si>
   <si>
-    <t>ТВ Херсон Ушакова 45</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>ТВ Херсон Некрасова 29</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
@@ -490,33 +484,18 @@
     <t>34</t>
   </si>
   <si>
-    <t>ТВ Одесса Преображенская 45а</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>ТВ Одесса Глушко 17</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>ТВ Одесса Семафорный 4Т</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t>ТВ Одесса Сахарова 1Б</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>ТВ Одесса Лип 13А</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
@@ -598,9 +577,6 @@
     <t>Николаев. Мира 56в/2</t>
   </si>
   <si>
-    <t>Херсон пр. Св. Кирилла и Мифодия, 23 (открытие в ноябре)</t>
-  </si>
-  <si>
     <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
   </si>
   <si>
@@ -736,25 +712,7 @@
     <t>82</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
+    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,7 +1630,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,7 +1663,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,7 +1696,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1707,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,7 +1718,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,7 +1729,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,7 +1740,7 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,7 +1751,7 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,7 +1773,7 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,7 +1784,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,7 +1795,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,7 +1806,7 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,7 +1817,7 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,7 +1839,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,7 +1850,7 @@
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,7 +1861,7 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,7 +1872,7 @@
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,10 +1891,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,10 +1902,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,10 +1913,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,10 +1924,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,252 +1935,252 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2230,10 +2188,10 @@
         <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2241,10 +2199,10 @@
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2252,350 +2210,273 @@
         <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>54</v>
+      <c r="A76" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>63</v>
+      <c r="A83" t="s">
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>71</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C90" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D90">
+  <autoFilter ref="A1:D83">
     <sortState ref="A2:D90">
       <sortCondition ref="A2:A90"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:D76">
-    <sortCondition ref="A2:A76"/>
+  <sortState ref="A2:D85">
+    <sortCondition ref="A2:A85"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2632,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -2643,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -2654,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -2665,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -2676,7 +2557,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2687,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -2698,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -2709,7 +2590,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2720,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -2731,7 +2612,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -2742,7 +2623,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -2753,7 +2634,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2764,7 +2645,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2775,7 +2656,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -2786,7 +2667,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -2797,7 +2678,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -2808,7 +2689,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -2819,7 +2700,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -2830,7 +2711,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -2841,7 +2722,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -2852,7 +2733,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -2863,7 +2744,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -2874,7 +2755,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -2885,7 +2766,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -2920,7 +2801,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2936,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitala\Documents\vb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,19 @@
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$A$1:$D$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$A$1:$D$82</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -262,268 +267,406 @@
     <t>address</t>
   </si>
   <si>
+    <t>ТВ Винница Пирогова 8</t>
+  </si>
+  <si>
+    <t>ТВ Винница Коцюбинского 78а</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Ломаная, 2</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
+  </si>
+  <si>
+    <t>Днепр, Кропивницкое</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Шолохова, 7</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Б. Хмельницького,123</t>
+  </si>
+  <si>
+    <t>Днепр, Каменское Свободы 53</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
+  </si>
+  <si>
+    <t>Днепр, вул. Паникахи, 61а</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Поля, 8а</t>
+  </si>
+  <si>
+    <t>ТВ Житомир Киевская 106</t>
+  </si>
+  <si>
+    <t>Запорожье, ул. Сытова, 4А</t>
+  </si>
+  <si>
+    <t>Запорожье, Бородинская 9</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 44</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 222</t>
+  </si>
+  <si>
+    <t>Каменское, пр-т Свободы, 53</t>
+  </si>
+  <si>
+    <t>Каменское 2: Бульвар Строителей 27А</t>
+  </si>
+  <si>
+    <t>ТВ Луцк Воли 15</t>
+  </si>
+  <si>
+    <t>Львов, вул. Городецкая 8</t>
+  </si>
+  <si>
+    <t>Львов, вул. вул. Черновола 57</t>
+  </si>
+  <si>
+    <t>Львов вул. пр. Шевченка 24</t>
+  </si>
+  <si>
+    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
+  </si>
+  <si>
+    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
+  </si>
+  <si>
+    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>ТВ Мариуполь Порт Сити</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Мариуполь, Шевченко 89/105</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ТВ Николаев пр-т Богоявленский</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ТВ Николаев Центральный 171/2</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Николаев. Героев Украины 20к</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Николаев. Мира 56в/2</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Сахарова, 1Б</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Преображенская, 45а</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Южный, пр-т Героев Обороны 3.</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Навощенный ряд 2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Одеса, пр-т Адмиральский, 1</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Одесса ул. Левитана, 118</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Заболотного, 52</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>ТВ Полтава Небесной сотни 10</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>ТВ Ровно Арена</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>ТВ Тернополь Шептицкого 20</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Харьков, Стадионный 5а</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Харьков, пр-т. Александровский 156</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Харьков, Героев Сталинграда 179</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Харьков, Науки 64</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, Полтавский Шлях 140</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Нетеченская 25</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Людвига Свободы 28</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Героев Труда 29г</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, СД Клочковская 9а</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Харьков, ТВ Юбилейный 89</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Херсон, ул. Некрасова, 29</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>ТВ Хмельницкий Лыбидь Плаза</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>ТВ Хмельницкий Вуд Молл</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>ТВ Черкаси Смилянская 45</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>ТВ Чернигов Кирпоноса 26</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Волгоградская 9</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Содружества 66А</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Космонавтов 3а</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Кривой Рог, ТВ Лермонтова 22</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Южный, Григорьевского Десанта,3</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Сумы, ул.Харьковская 2/1</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Сумы, ул.Кооперативная 1</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Бол Перспективная 47</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Павлоград: ул. Горького 164- ТВ</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>ТВ вул. Січових Стрільців 68</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>ТВ Трудова 6</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>ТВ Кам'янецька 21</t>
-  </si>
-  <si>
-    <t>69</t>
+    <t>77</t>
+  </si>
+  <si>
+    <t>ТВ Олександрія Соборний 100а</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>ТВ площа Шендора Петефі 17</t>
+  </si>
+  <si>
+    <t>79</t>
   </si>
   <si>
     <t>ТВ вул.Незалежності 119</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>ТВ площа Шендора Петефі 17</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>ТВ Олександрія Соборний 100а</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>ТВ Павлоград Горького 164</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>ТВ Кропивницкий Бол Перспективная 47</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>ТВ ул.Харьковская 2/1</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>ТВ ул.Кооперативная 1</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>ТВ Григорьевского Десанта,3</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Харьков, Стадионный 5а</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Днепр, Кропивницкое</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Волгоградская 9</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Содружества 66А</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Космонавтов 3а</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Харьков, Героев Сталинграда 179</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Харьков, Науки 64</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Днепр, Каменское Свободы 53</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Кривой Рог, ТВ Лермонтова 22</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>ТВ Чернигов Кирпоноса 26</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>ТВ Черкаси Смилянская 45</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>ТВ Хмельницкий Лыбидь Плаза</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>ТВ Хмельницкий Вуд Молл</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, Полтавский Шлях 140</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Нетеченская 25</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Людвига Свободы 28</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Героев Труда 29г</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, СД Клочковская 9а</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>ТВ Тернополь Шептицкого 20</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>ТВ Ровно Арена</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>ТВ Полтава Небесной сотни 10</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>ТВ Николаев пр-т Богоявленский</t>
-  </si>
-  <si>
-    <t>ТВ Николаев Центральный 171/2</t>
-  </si>
-  <si>
-    <t>ТВ Мариуполь Порт Сити</t>
-  </si>
-  <si>
-    <t>ТВ Луцк Воли 15</t>
-  </si>
-  <si>
-    <t>ТВ Винница Пирогова 8</t>
-  </si>
-  <si>
-    <t>ТВ Житомир Киевская 106</t>
-  </si>
-  <si>
-    <t>Харьков, ТВ Юбилейный 89</t>
-  </si>
-  <si>
-    <t>Мариуполь, Шевченко 89/105</t>
-  </si>
-  <si>
-    <t>ТВ Винница Коцюбинского 78а</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Хмельницький, Трудова 6</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Хмельницький, Кам'янецька 21</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск, вул. Січових Стрільців 68</t>
   </si>
   <si>
     <t>Курьер</t>
@@ -569,150 +712,6 @@
   </si>
   <si>
     <t>2т</t>
-  </si>
-  <si>
-    <t>Николаев. Героев Украины 20к</t>
-  </si>
-  <si>
-    <t>Николаев. Мира 56в/2</t>
-  </si>
-  <si>
-    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
-  </si>
-  <si>
-    <t>Херсон, ул. Некрасова, 29</t>
-  </si>
-  <si>
-    <t>Львов вул. пр. Шевченка 24</t>
-  </si>
-  <si>
-    <t>Львов, вул. вул. Черновола 57</t>
-  </si>
-  <si>
-    <t>Львов, вул. Городецкая 8</t>
-  </si>
-  <si>
-    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
-  </si>
-  <si>
-    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Ломаная, 2</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Шолохова, 7</t>
-  </si>
-  <si>
-    <t>Днепр, вул. Паникахи, 61а</t>
-  </si>
-  <si>
-    <t>Днепр, просп. Б. Хмельницького,123</t>
-  </si>
-  <si>
-    <t>Днепр, просп. Поля, 8а</t>
-  </si>
-  <si>
-    <t>Каменское, пр-т Свободы, 53</t>
-  </si>
-  <si>
-    <t>Каменское 2: Бульвар Строителей 27А</t>
-  </si>
-  <si>
-    <t>Павлоград: ул. Горького 164- ТВ</t>
-  </si>
-  <si>
-    <t>Запорожье, Бородинская 9</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный, 222</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный, 44</t>
-  </si>
-  <si>
-    <t>Запорожье, ул. Сытова, 4А</t>
-  </si>
-  <si>
-    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
-  </si>
-  <si>
-    <t>Харьков, пр-т. Александровский 156</t>
-  </si>
-  <si>
-    <t>Одеса, вул. Навощенный ряд 2</t>
-  </si>
-  <si>
-    <t>Одеса, вул. Преображенская, 45а</t>
-  </si>
-  <si>
-    <t>Одеса, пр-т Адмиральский, 1</t>
-  </si>
-  <si>
-    <t>Одесса ул. Левитана, 118</t>
-  </si>
-  <si>
-    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
-  </si>
-  <si>
-    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Академика Заболотного, 52</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Академика Сахарова, 1Б</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
-  </si>
-  <si>
-    <t>Южный, пр-т Героев Обороны 3.</t>
-  </si>
-  <si>
-    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
-  </si>
-  <si>
-    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
   </si>
 </sst>
 </file>
@@ -722,10 +721,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -748,15 +747,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -769,9 +770,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -779,44 +780,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -843,14 +844,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -877,9 +879,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -888,166 +891,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1055,13 +1034,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1069,11 +1049,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
@@ -1535,35 +1515,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1575,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1586,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,7 +1600,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1622,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,7 +1633,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,7 +1644,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1655,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,7 +1666,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1677,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,7 +1699,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,7 +1710,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,7 +1721,7 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1751,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1743,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,7 +1754,7 @@
         <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,7 +1765,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,7 +1776,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1806,7 +1787,7 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,7 +1798,7 @@
         <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,7 +1809,7 @@
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,7 +1820,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,7 +1831,7 @@
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,7 +1842,7 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,10 +1861,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,10 +1872,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,10 +1883,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1894,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1905,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1916,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1927,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1938,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,10 +1949,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +1960,10 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +1971,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,10 +1982,10 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,10 +1993,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,7 +2007,7 @@
         <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,10 +2015,10 @@
         <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,10 +2026,10 @@
         <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,10 +2037,10 @@
         <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,10 +2048,10 @@
         <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,10 +2059,10 @@
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,10 +2070,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +2081,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,10 +2092,10 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,10 +2103,10 @@
         <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,10 +2114,10 @@
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,10 +2125,10 @@
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2155,10 +2136,10 @@
         <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,10 +2147,10 @@
         <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,10 +2158,10 @@
         <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,10 +2169,10 @@
         <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,10 +2180,10 @@
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,10 +2191,10 @@
         <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,10 +2202,10 @@
         <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,10 +2213,10 @@
         <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,10 +2224,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,10 +2235,10 @@
         <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2246,10 @@
         <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2257,10 @@
         <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2268,10 @@
         <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,10 +2279,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,10 +2290,10 @@
         <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,10 +2301,10 @@
         <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,10 +2312,10 @@
         <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2323,10 @@
         <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2334,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +2345,10 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,10 +2356,10 @@
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,54 +2367,54 @@
         <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,45 +2422,31 @@
         <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D83">
-    <sortState ref="A2:D90">
-      <sortCondition ref="A2:A90"/>
+  <autoFilter ref="A1:D82">
+    <sortState ref="A2:D83">
+      <sortCondition ref="A2:A83"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:D85">
-    <sortCondition ref="A2:A85"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2487,13 +2454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2513,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -2524,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -2535,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -2546,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -2557,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -2568,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -2579,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -2590,7 +2557,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2601,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -2612,7 +2579,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -2623,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -2634,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2645,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2656,7 +2623,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -2667,7 +2634,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -2678,7 +2645,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -2689,7 +2656,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -2700,7 +2667,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -2711,7 +2678,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -2722,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -2733,7 +2700,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -2744,7 +2711,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -2755,7 +2722,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -2766,14 +2733,15 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2781,9 +2749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2801,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2809,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2785,11 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitala\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65498DB-D605-4101-B269-DEB7F74B66E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF0D5DB-BFB4-475A-BFD8-2D604F8D9986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,12 @@
     <sheet name="delivery" sheetId="4" r:id="rId4"/>
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$A$1:$D$115</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="390">
   <si>
     <t>id</t>
   </si>
@@ -38,9 +35,42 @@
     <t>access</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>741048210</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Нововолинськ</t>
+  </si>
+  <si>
+    <t>415497092</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Володимир-Волинський</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>593226954</t>
+  </si>
+  <si>
+    <t>471125560</t>
+  </si>
+  <si>
+    <t>-1001246295555</t>
+  </si>
+  <si>
+    <t>508494739</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -56,7 +86,7 @@
     <t>Белая Церковь</t>
   </si>
   <si>
-    <t>471125560</t>
+    <t>820396021</t>
   </si>
   <si>
     <t>28</t>
@@ -65,18 +95,27 @@
     <t>Ивано-Франковск</t>
   </si>
   <si>
+    <t>709893871</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
     <t>Хмельницький</t>
   </si>
   <si>
+    <t>499776375</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
     <t>Черновцы</t>
   </si>
   <si>
+    <t>528840611</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
@@ -86,6 +125,9 @@
     <t>1045579601</t>
   </si>
   <si>
+    <t>481700268</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -104,9 +146,6 @@
     <t>Павлоград</t>
   </si>
   <si>
-    <t>508494739</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -122,6 +161,9 @@
     <t>Сумы</t>
   </si>
   <si>
+    <t>724548738</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -158,12 +200,18 @@
     <t>345042429</t>
   </si>
   <si>
+    <t>555144390</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>Черкассы</t>
   </si>
   <si>
+    <t>647218369</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -200,6 +248,9 @@
     <t>Тернополь</t>
   </si>
   <si>
+    <t>538853165</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -263,6 +314,9 @@
     <t>555435397</t>
   </si>
   <si>
+    <t>715435244</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -305,6 +359,9 @@
     <t>Житомир</t>
   </si>
   <si>
+    <t>1000320387</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -320,6 +377,9 @@
     <t>420067420</t>
   </si>
   <si>
+    <t>556769266</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -341,592 +401,706 @@
     <t>99</t>
   </si>
   <si>
+    <t>Южный, Григорьевского Десанта,3</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Южный, пр-т Героев Обороны 3.</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Волгоградская 9</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Космонавтов 3а</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Содружества 66А</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Кривой Рог, ТВ Лермонтова 22</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>ТВ Чернигов Кирпоноса 26</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>ТВ Черкаси Смилянская 45</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Черкаси, б-р Шевченка, 207</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Хмельницкий, ул. Каменецкая (ТГРК Лыбидь плаза), 21</t>
+  </si>
+  <si>
+    <t>Днепр, вул. Паникахи, 61а</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Хмельницкий, ул. Трудовая (ТРЦ WOODMALL), 6А</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Херсон, Некрасова 29</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Херсон, Новая Каховка</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Херсон, Святых Кирилла и Мефодия 23</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Херсон, ул. Некрасова, 29</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Херсон, Ушакова 45</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Херсон, Французкая 55</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Героев Труда 29г</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Б. Хмельницького,123</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Людвига Свободы 28</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Нетеченская 25</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, Полтавский Шлях 140</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, СД Клочковская 9а</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Харків, вул. Академіка Павлова, 319</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Харьков, вул.Академіка Павлова 317 А</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Харьков, вул.Дружби Народів 249/80</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Харьков, Героев Сталинграда 179</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Харьков, Московский проспект, 256</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Харьков, Науки 64</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Поля, 8а</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Харьков, пр-т. Александровский 156</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Харьков, Стадионный 5а</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Харьков, ТВ Юбилейный 89</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Тернополь, ул. Митрополита Шептицкого, 20</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Рівне, просп. Миру,11</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Рівне, ул. Киевская (ТЦ Арена), 67</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>ТВ Полтава Небесной Сотни 10/19</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Полтава, вул. Європейська 255</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Полтава, ул. Мазепы 45</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Одесса, Преображенская, 45</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Одесса, Левитана, 118/2</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Одесса, Новощепной ряд, 2 (ТЦ Остров)</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Навощенный ряд 2</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Преображенская, 45а</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Одеса, пр-т Адмиральский, 1</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Одесса Тираспольское Шоссе 22</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Одесса ул. Левитана, 118</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
+  </si>
+  <si>
+    <t>ТВ Винница Космонавтов 49</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Заболотного, 52</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Сахарова, 1Б</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Николаев. Героев Украины 20к</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Николаев. Мира 56в/2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>ТВ Николаев Центральный 171/2</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>ТВ Николаев, пр-т Богоявленский, 305</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Мариуполь, Запорожское шоссе (ТРЦ Порт CITY), 2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Мариуполь, Победа 32/42</t>
+  </si>
+  <si>
+    <t>ТВ Винница Коцюбинского 78а</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Мариуполь, Шевченко 89/105</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Маріуполь, пл. Перемоги, 72</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Львів, вул. Вагова, 2,</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Львів, вул. Стрийська, 85а</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Львов вул. пр. Шевченка 24</t>
+  </si>
+  <si>
+    <t>Львов, Володимира Великого 18</t>
+  </si>
+  <si>
+    <t>Львов, вул. вул. Черновола 57</t>
+  </si>
+  <si>
+    <t>Львов, вул. Городецкая 8</t>
+  </si>
+  <si>
+    <t>Львов, Зелена 301</t>
+  </si>
+  <si>
+    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
+  </si>
+  <si>
+    <t>ТВ Винница Пирогова 8</t>
+  </si>
+  <si>
+    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
+  </si>
+  <si>
+    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
+  </si>
+  <si>
+    <t>м.Львів, вул. Зелена,301</t>
+  </si>
+  <si>
+    <t>ТВ Луцк Воли 15</t>
+  </si>
+  <si>
+    <t>Каменское, пр-т Свободы, 53</t>
+  </si>
+  <si>
+    <t>Каменское, Строителей 27А</t>
+  </si>
+  <si>
+    <t>Запорожье, Бородинская 9</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 222</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 44</t>
+  </si>
+  <si>
+    <t>ТВ Винница, ул. Гоголя, 1</t>
+  </si>
+  <si>
+    <t>Запорожье, ул. Сытова, 4А</t>
+  </si>
+  <si>
+    <t>Житомир, пл. Соборний, 7/1</t>
+  </si>
+  <si>
+    <t>Житомир, пров. 1й Винокурний, 63</t>
+  </si>
+  <si>
+    <t>ТВ Житомир Киевская 106</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Черновцы, Університетська 6</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Черновцы, Незалежності 119</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Черновцы, Чёрнівці Університетська 6</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Полтава, Халаменюка 7</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Полтава, Кременчуг</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Сумы, Лушпы 10/1</t>
+  </si>
+  <si>
+    <t>Днепр, ТЦ Караван, вулиця Нижньодніпровська, 17</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Нововолинськ, Перемоги 2а</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Володимир-Волинський, Ковельська 71</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Луцк, Привокзальна 10б</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Ужгород, Мукачево вул.Духновича 22</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Тернополь, Тернополь</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Ровно, Київська 67</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Ровно, пр.Мира 11</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Ломаная, 2</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Ужгород, ТВ вул. Заньковецької 70</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Ужгород, ТВ пл.Шандора Петефі 17</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск, Коломия, пл.Шевченка 14</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск, полоща Шевченка 14</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Тернополь, Тарнавського 36</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Борисполь, ул. Киевский Шлях (ТЦ PARK TOWN), 67</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Белая Церковь, ул. Ярослава Мудрого, 10</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Івано-Франківськ, вул. Бельведерська, 27Б</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Івано-Франківськ, вул. Січових Стрільців 68</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Хмельницький, Кам'янецька 21</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Хмельницький, Трудова 6</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>ТВ Черновцы вул.Незалежності 119</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>ТВ Ужгород площа Шендора Петефі 17</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>ТВ Олександрія Соборний 100а</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Павлоград ул. Горького 164- ТВ</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Бол Перспективная 47</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Попова 28</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Суми, вул. 9 травня, 13,</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Сумы, ул.Кооперативная 1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>Сумы, ул.Харьковская 2/1</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Сумы, ул.Кооперативная 1</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Суми, вул. 9 травня, 13,</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Южный, пр-т Героев Обороны 3.</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Южный, Григорьевского Десанта,3</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Кривой Рог, ТВ Лермонтова 22</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Содружества 66А</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Космонавтов 3а</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Волгоградская 9</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>ТВ Чернигов Кирпоноса 26</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Черкаси, б-р Шевченка, 207</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>ТВ Черкаси Смилянская 45</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Хмельницкий, ул. Трудовая (ТРЦ WOODMALL), 6А</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Хмельницкий, ул. Каменецкая (ТГРК Лыбидь плаза), 21</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Херсон, Французкая 55</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Херсон, Ушакова 45</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Херсон, ул. Некрасова, 29</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Херсон, Святых Кирилла и Мефодия 23</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Херсон, Новая Каховка</t>
-  </si>
-  <si>
-    <t>Днепр, просп. Поля, 8а</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Херсон, Некрасова 29</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Харьков, ТВ Юбилейный 89</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Харьков, Стадионный 5а</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Харьков, пр-т. Александровский 156</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Харьков, Науки 64</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Харьков, Московский проспект, 256</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Харьков, Героев Сталинграда 179</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Харьков, вул.Дружби Народів 249/80</t>
-  </si>
-  <si>
-    <t>Днепр, просп. Б. Хмельницького,123</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Харьков, вул.Академіка Павлова 317 А</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Харків, вул. Академіка Павлова, 319</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, СД Клочковская 9а</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, Полтавский Шлях 140</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Нетеченская 25</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Людвига Свободы 28</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Героев Труда 29г</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Тернополь, ул. Митрополита Шептицкого, 20</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Рівне, ул. Киевская (ТЦ Арена), 67</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Рівне, просп. Миру,11</t>
-  </si>
-  <si>
-    <t>Днепр, вул. Паникахи, 61а</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Полтава, ул. Мазепы 45</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Полтава, вул. Європейська 255</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>ТВ Полтава Небесной Сотни 10/19</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Академика Сахарова, 1Б</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Академика Заболотного, 52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Одесса ул. Левитана, 118</t>
+    <t>Днепр, ул. Шолохова, 7</t>
   </si>
   <si>
     <t>ТВ Винница, ул. Зодчих 2а</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Одесса Тираспольское Шоссе 22</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Одеса, пр-т Адмиральский, 1</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Одеса, вул. Преображенская, 45а</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Одеса, вул. Навощенный ряд 2</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ТВ Николаев, пр-т Богоявленский, 305</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>ТВ Николаев Центральный 171/2</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Николаев. Мира 56в/2</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Николаев. Героев Украины 20к</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Маріуполь, пл. Перемоги, 72</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Мариуполь, Шевченко 89/105</t>
-  </si>
-  <si>
-    <t>ТВ Винница, ул. Гоголя, 1</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Мариуполь, Победа 32/42</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Мариуполь, Запорожское шоссе (ТРЦ Порт CITY), 2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>м.Львів, вул. Зелена,301</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Львов, Зелена 301</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Львов, вул. Городецкая 8</t>
-  </si>
-  <si>
-    <t>Львов, вул. вул. Черновола 57</t>
-  </si>
-  <si>
-    <t>Львов, Володимира Великого 18</t>
-  </si>
-  <si>
-    <t>ТВ Винница Пирогова 8</t>
-  </si>
-  <si>
-    <t>Львов вул. пр. Шевченка 24</t>
-  </si>
-  <si>
-    <t>Львів, вул. Стрийська, 85а</t>
-  </si>
-  <si>
-    <t>Львів, вул. Вагова, 2,</t>
-  </si>
-  <si>
-    <t>ТВ Луцк Воли 15</t>
-  </si>
-  <si>
-    <t>Каменское, Строителей 27А</t>
-  </si>
-  <si>
-    <t>Каменское, пр-т Свободы, 53</t>
-  </si>
-  <si>
-    <t>Запорожье, ул. Сытова, 4А</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный, 44</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный, 222</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
-  </si>
-  <si>
-    <t>ТВ Винница Коцюбинского 78а</t>
-  </si>
-  <si>
-    <t>Запорожье, Бородинская 9</t>
-  </si>
-  <si>
-    <t>ТВ Житомир Киевская 106</t>
-  </si>
-  <si>
-    <t>Житомир, пров. 1й Винокурний, 63</t>
-  </si>
-  <si>
-    <t>Житомир, пл. Соборний, 7/1</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Шолохова, 7</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Ломаная, 2</t>
-  </si>
-  <si>
-    <t>Днепр, ТЦ Караван, вулиця Нижньодніпровська, 17</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Одесса, Новощепной ряд, 2 (ТЦ Остров)</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Одесса, Левитана, 118/2</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Одесса, Преображенская, 45</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Борисполь, ул. Киевский Шлях (ТЦ PARK TOWN), 67</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Белая Церковь, ул. Ярослава Мудрого, 10</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Івано-Франківськ, вул. Січових Стрільців 68</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>Івано-Франківськ, вул. Бельведерська, 27Б</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Хмельницький, Трудова 6</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Хмельницький, Кам'янецька 21</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>ТВ Черновцы вул.Незалежності 119</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>ТВ Ужгород площа Шендора Петефі 17</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>ТВ Олександрія Соборний 100а</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Павлоград ул. Горького 164- ТВ</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>ТВ Кропивницкий Попова 28</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>ТВ Кропивницкий Бол Перспективная 47</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
-  </si>
-  <si>
-    <t>ТВ Винница Космонавтов 49</t>
+    <t>Курьер Розетка</t>
+  </si>
+  <si>
+    <t>ТОВ «БСК Логістик»</t>
   </si>
   <si>
     <t>ТОВ ВІП-КРУЇЗ</t>
@@ -938,6 +1112,15 @@
     <t>ТОВ Нова Пошта</t>
   </si>
   <si>
+    <t>ТОВ «ТЕК КООРДИНАТОР</t>
+  </si>
+  <si>
+    <t>ТОВ «ТК Експерт»</t>
+  </si>
+  <si>
+    <t>ТОВ «ТОП ТРАНС Украина»</t>
+  </si>
+  <si>
     <t>ФОП Васильківський Р.Ю.</t>
   </si>
   <si>
@@ -950,6 +1133,42 @@
     <t>Неизвестно</t>
   </si>
   <si>
+    <t>Мост Экспресс</t>
+  </si>
+  <si>
+    <t>665334580</t>
+  </si>
+  <si>
+    <t>422501742</t>
+  </si>
+  <si>
+    <t>ТДВ Харьківське АТП №16363</t>
+  </si>
+  <si>
+    <t>ТОВ «Теленексус»</t>
+  </si>
+  <si>
+    <t>ТОВ Овертон Логістик</t>
+  </si>
+  <si>
+    <t>ТОВ Смарт Транс</t>
+  </si>
+  <si>
+    <t>ТОВ Ярмакс</t>
+  </si>
+  <si>
+    <t>ФОП Аралов</t>
+  </si>
+  <si>
+    <t>ФОП Кобрин</t>
+  </si>
+  <si>
+    <t>ФОП Лукіна</t>
+  </si>
+  <si>
+    <t>ФОП Щетинин</t>
+  </si>
+  <si>
     <t>10т</t>
   </si>
   <si>
@@ -959,49 +1178,22 @@
     <t>2т</t>
   </si>
   <si>
-    <t>ТОВ «БСК Логістик»</t>
-  </si>
-  <si>
-    <t>ТДВ Харьківське АТП №16363</t>
-  </si>
-  <si>
-    <t>ТОВ Овертон Логістик</t>
-  </si>
-  <si>
-    <t>ТОВ «ТЕК КООРДИНАТОР</t>
-  </si>
-  <si>
-    <t>ТОВ «Теленексус»</t>
-  </si>
-  <si>
-    <t>ТОВ «ТК Експерт»</t>
-  </si>
-  <si>
-    <t>ТОВ «ТОП ТРАНС Украина»</t>
-  </si>
-  <si>
-    <t>ТОВ Ярмакс</t>
-  </si>
-  <si>
-    <t>ТОВ Смарт Транс</t>
-  </si>
-  <si>
-    <t>ФОП Аралов</t>
-  </si>
-  <si>
-    <t>ФОП Кобрин</t>
-  </si>
-  <si>
-    <t>ФОП Лукіна</t>
-  </si>
-  <si>
-    <t>ФОП Щетинин</t>
-  </si>
-  <si>
-    <t>Мост Экспресс</t>
-  </si>
-  <si>
-    <t>Курьер Розетка</t>
+    <t>Шостка</t>
+  </si>
+  <si>
+    <t>Мукачево</t>
+  </si>
+  <si>
+    <t>Шостка, Свободы 35</t>
+  </si>
+  <si>
+    <t>ТВ Мукачево, вул. Духновича 22</t>
+  </si>
+  <si>
+    <t>Славянск</t>
+  </si>
+  <si>
+    <t>Славянск, шелковичная 12</t>
   </si>
 </sst>
 </file>
@@ -1344,9 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="J20:K20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1356,16 +1546,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I79" sqref="I78:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,740 +1572,972 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
         <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>384</v>
+      </c>
+      <c r="C88" t="s">
         <v>4</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C69">
-    <sortCondition ref="A2:A69"/>
+  <sortState ref="A2:C88">
+    <sortCondition ref="A2:A88"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2122,26 +2545,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:W1048576"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2149,87 +2572,87 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -2237,791 +2660,791 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>243</v>
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>239</v>
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>237</v>
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>233</v>
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>231</v>
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>229</v>
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
       </c>
       <c r="C40" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>224</v>
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>222</v>
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>218</v>
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>216</v>
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>214</v>
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>212</v>
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>210</v>
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>205</v>
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>199</v>
+        <v>81</v>
+      </c>
+      <c r="B54" t="s">
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>195</v>
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>193</v>
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>191</v>
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>187</v>
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>178</v>
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>176</v>
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>291</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>172</v>
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>168</v>
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>166</v>
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>308</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>322</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>157</v>
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>153</v>
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>149</v>
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>147</v>
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>145</v>
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
+        <v>178</v>
       </c>
       <c r="C81" t="s">
         <v>179</v>
@@ -3029,381 +3452,625 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>68</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
+      </c>
+      <c r="B89" t="s">
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="B90" t="s">
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>121</v>
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>155</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>117</v>
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>153</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
+      </c>
+      <c r="B94" t="s">
+        <v>151</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>113</v>
+        <v>64</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>109</v>
+        <v>62</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>296</v>
+        <v>55</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>294</v>
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>134</v>
       </c>
       <c r="C102" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>292</v>
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>288</v>
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>286</v>
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>293</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>284</v>
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>282</v>
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>353</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>280</v>
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>351</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>278</v>
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>349</v>
       </c>
       <c r="C110" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>275</v>
+        <v>43</v>
+      </c>
+      <c r="B111" t="s">
+        <v>293</v>
       </c>
       <c r="C111" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>273</v>
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>347</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>271</v>
+        <v>40</v>
+      </c>
+      <c r="B113" t="s">
+        <v>345</v>
       </c>
       <c r="C113" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>269</v>
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>343</v>
       </c>
       <c r="C114" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>267</v>
+        <v>34</v>
+      </c>
+      <c r="B115" t="s">
+        <v>341</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
-      </c>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" t="s">
+        <v>316</v>
+      </c>
+      <c r="C117" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>314</v>
+      </c>
+      <c r="C118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>337</v>
+      </c>
+      <c r="C120" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>285</v>
+      </c>
+      <c r="C122" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>332</v>
+      </c>
+      <c r="C125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>318</v>
+      </c>
+      <c r="C129" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" t="s">
+        <v>326</v>
+      </c>
+      <c r="C130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>300</v>
+      </c>
+      <c r="C133" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>298</v>
+      </c>
+      <c r="C134" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D115">
-    <sortCondition ref="A2:A115"/>
+  <sortState ref="A2:D135">
+    <sortCondition ref="A2:A135"/>
+    <sortCondition ref="B2:B135"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3411,16 +4078,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,142 +4101,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -3579,637 +4244,1069 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="C51" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>366</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>368</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>368</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>368</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>368</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>368</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>369</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>369</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>369</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>369</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>369</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
+        <v>369</v>
+      </c>
+      <c r="C85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
+        <v>369</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" t="s">
+        <v>369</v>
+      </c>
+      <c r="C87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" t="s">
+        <v>369</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" t="s">
+        <v>369</v>
+      </c>
+      <c r="C97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+      <c r="C101" t="s">
         <v>57</v>
       </c>
-      <c r="B64" t="s">
-        <v>306</v>
-      </c>
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" t="s">
+        <v>369</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>374</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>55</v>
       </c>
-      <c r="B65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B108" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>51</v>
       </c>
-      <c r="B66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B109" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>43</v>
       </c>
-      <c r="B69" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B111" t="s">
+        <v>379</v>
+      </c>
+      <c r="C111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>40</v>
       </c>
-      <c r="B70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" t="s">
-        <v>322</v>
+      <c r="B112" t="s">
+        <v>380</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4217,9 +5314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4236,26 +5331,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitala\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF0D5DB-BFB4-475A-BFD8-2D604F8D9986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002B867-A2A1-4F0C-8E55-C1F9D4635DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,15 @@
     <sheet name="delivery" sheetId="4" r:id="rId4"/>
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">city!$A$1:$C$93</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="393">
   <si>
     <t>id</t>
   </si>
@@ -35,1071 +38,1092 @@
     <t>access</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Винница</t>
+  </si>
+  <si>
+    <t>337517686</t>
+  </si>
+  <si>
+    <t>1240678295</t>
+  </si>
+  <si>
+    <t>-1001246295555</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Днепр</t>
+  </si>
+  <si>
+    <t>333650644</t>
+  </si>
+  <si>
+    <t>310796091</t>
+  </si>
+  <si>
+    <t>401848467</t>
+  </si>
+  <si>
+    <t>766808380</t>
+  </si>
+  <si>
+    <t>497774981</t>
+  </si>
+  <si>
+    <t>844782656</t>
+  </si>
+  <si>
+    <t>420067420</t>
+  </si>
+  <si>
+    <t>554546948</t>
+  </si>
+  <si>
+    <t>556769266</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Житомир</t>
+  </si>
+  <si>
+    <t>1000320387</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Запорожье</t>
+  </si>
+  <si>
+    <t>525934688</t>
+  </si>
+  <si>
+    <t>264262717</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Каменское</t>
+  </si>
+  <si>
+    <t>1045579601</t>
+  </si>
+  <si>
+    <t>888150500</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Луцк</t>
+  </si>
+  <si>
+    <t>415497092</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Львов</t>
+  </si>
+  <si>
+    <t>555435397</t>
+  </si>
+  <si>
+    <t>715435244</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Мариуполь</t>
+  </si>
+  <si>
+    <t>546802359</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Николаев</t>
+  </si>
+  <si>
+    <t>606045221</t>
+  </si>
+  <si>
+    <t>678461559</t>
+  </si>
+  <si>
+    <t>1096057870</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Одесса</t>
+  </si>
+  <si>
+    <t>449884212</t>
+  </si>
+  <si>
+    <t>825865114</t>
+  </si>
+  <si>
+    <t>678155087</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Полтава</t>
+  </si>
+  <si>
+    <t>1054684002</t>
+  </si>
+  <si>
+    <t>1040114923</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Ровно</t>
+  </si>
+  <si>
+    <t>593226954</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Тернополь</t>
+  </si>
+  <si>
+    <t>538853165</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Харьков</t>
+  </si>
+  <si>
+    <t>564605214</t>
+  </si>
+  <si>
+    <t>901627344</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Херсон</t>
+  </si>
+  <si>
+    <t>464283641</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Хмельницкий</t>
+  </si>
+  <si>
+    <t>499776375</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Черкассы</t>
+  </si>
+  <si>
+    <t>647218369</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Чернигов</t>
+  </si>
+  <si>
+    <t>345042429</t>
+  </si>
+  <si>
+    <t>555144390</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Кривой Рог</t>
+  </si>
+  <si>
+    <t>913008476</t>
+  </si>
+  <si>
+    <t>471125560</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Южный</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Сумы</t>
+  </si>
+  <si>
+    <t>724548738</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Кропивницкий</t>
+  </si>
+  <si>
+    <t>480534911</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Павлоград</t>
+  </si>
+  <si>
+    <t>508494739</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Александрия</t>
+  </si>
+  <si>
+    <t>789024114</t>
+  </si>
+  <si>
+    <t>1947178819</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Ужгород</t>
+  </si>
+  <si>
+    <t>481700268</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Черновцы</t>
+  </si>
+  <si>
+    <t>528840611</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Хмельницький</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск</t>
+  </si>
+  <si>
+    <t>709893871</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Белая Церковь</t>
+  </si>
+  <si>
+    <t>820396021</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Борисполь</t>
+  </si>
+  <si>
+    <t>1414287395</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Мукачево</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Володимир-Волинський</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Нововолинськ</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t>Шостка</t>
+  </si>
+  <si>
     <t>741048210</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Нововолинськ</t>
-  </si>
-  <si>
-    <t>415497092</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Володимир-Волинський</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>593226954</t>
-  </si>
-  <si>
-    <t>471125560</t>
-  </si>
-  <si>
-    <t>-1001246295555</t>
-  </si>
-  <si>
-    <t>508494739</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Борисполь</t>
-  </si>
-  <si>
-    <t>1414287395</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Белая Церковь</t>
-  </si>
-  <si>
-    <t>820396021</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Ивано-Франковск</t>
-  </si>
-  <si>
-    <t>709893871</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Хмельницький</t>
-  </si>
-  <si>
-    <t>499776375</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Черновцы</t>
-  </si>
-  <si>
-    <t>528840611</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Ужгород</t>
-  </si>
-  <si>
-    <t>1045579601</t>
-  </si>
-  <si>
-    <t>481700268</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Александрия</t>
-  </si>
-  <si>
-    <t>789024114</t>
-  </si>
-  <si>
-    <t>1947178819</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Павлоград</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Кропивницкий</t>
-  </si>
-  <si>
-    <t>480534911</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Сумы</t>
-  </si>
-  <si>
-    <t>724548738</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Южный</t>
-  </si>
-  <si>
-    <t>337517686</t>
-  </si>
-  <si>
-    <t>449884212</t>
-  </si>
-  <si>
-    <t>1096057870</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Кривой Рог</t>
-  </si>
-  <si>
-    <t>310796091</t>
-  </si>
-  <si>
-    <t>913008476</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Чернигов</t>
-  </si>
-  <si>
-    <t>345042429</t>
-  </si>
-  <si>
-    <t>555144390</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Черкассы</t>
-  </si>
-  <si>
-    <t>647218369</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Хмельницкий</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Херсон</t>
-  </si>
-  <si>
-    <t>606045221</t>
-  </si>
-  <si>
-    <t>464283641</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Харьков</t>
-  </si>
-  <si>
-    <t>564605214</t>
-  </si>
-  <si>
-    <t>901627344</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Тернополь</t>
-  </si>
-  <si>
-    <t>538853165</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Ровно</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Полтава</t>
-  </si>
-  <si>
-    <t>1054684002</t>
-  </si>
-  <si>
-    <t>1040114923</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Одесса</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Славянск</t>
+  </si>
+  <si>
+    <t>665334580</t>
+  </si>
+  <si>
+    <t>id_city</t>
+  </si>
+  <si>
+    <t>id_adr</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>ТВ Винница, ул. Зодчих 2а</t>
+  </si>
+  <si>
+    <t>ТВ Винница, ул. Гоголя, 1</t>
+  </si>
+  <si>
+    <t>ТВ Винница Пирогова 8</t>
+  </si>
+  <si>
+    <t>ТВ Винница Коцюбинского 78а</t>
+  </si>
+  <si>
+    <t>ТВ Винница Космонавтов 49</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Поля, 8а</t>
+  </si>
+  <si>
+    <t>Днепр, просп. Б. Хмельницького,123</t>
+  </si>
+  <si>
+    <t>Днепр, вул. Паникахи, 61а</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Шолохова, 7</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
+  </si>
+  <si>
+    <t>Днепр, ул. Ломаная, 2</t>
+  </si>
+  <si>
+    <t>Днепр, ТЦ Караван, вулиця Нижньодніпровська, 17</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
+  </si>
+  <si>
+    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
+  </si>
+  <si>
+    <t>ТВ Житомир Киевская 106</t>
+  </si>
+  <si>
+    <t>Житомир, пров. 1й Винокурний, 63</t>
+  </si>
+  <si>
+    <t>Житомир, пл. Соборний, 7/1</t>
+  </si>
+  <si>
+    <t>Запорожье, ул. Сытова, 4А</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 44</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный, 222</t>
+  </si>
+  <si>
+    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
+  </si>
+  <si>
+    <t>Запорожье, Бородинская 9</t>
+  </si>
+  <si>
+    <t>Каменское, Строителей 27А</t>
+  </si>
+  <si>
+    <t>Каменское, пр-т Свободы, 53</t>
+  </si>
+  <si>
+    <t>ТВ Луцк Воли 15</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Луцк, Привокзальна 10б</t>
+  </si>
+  <si>
+    <t>м.Львів, вул. Зелена,301</t>
+  </si>
+  <si>
+    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
+  </si>
+  <si>
+    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
+  </si>
+  <si>
+    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
+  </si>
+  <si>
+    <t>Львов, Зелена 301</t>
+  </si>
+  <si>
+    <t>Львов, вул. Городецкая 8</t>
+  </si>
+  <si>
+    <t>Львов, вул. вул. Черновола 57</t>
+  </si>
+  <si>
+    <t>Львов, Володимира Великого 18</t>
+  </si>
+  <si>
+    <t>Львов вул. пр. Шевченка 24</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Львів, вул. Стрийська, 85а</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Львів, вул. Вагова, 2,</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Маріуполь, пл. Перемоги, 72</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Мариуполь, Шевченко 89/105</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Мариуполь, Победа 32/42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Мариуполь, Запорожское шоссе (ТРЦ Порт CITY), 2</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>ТВ Николаев, пр-т Богоявленский, 305</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>ТВ Николаев Центральный 171/2</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Николаев. Мира 56в/2</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Николаев. Героев Украины 20к</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Сахарова, 1Б</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Одесса, ул. Академика Заболотного, 52</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Одесса ул. Левитана, 118</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Одесса Тираспольское Шоссе 22</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Одеса, пр-т Адмиральский, 1</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Преображенская, 45а</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Одеса, вул. Навощенный ряд 2</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Одесса, Новощепной ряд, 2 (ТЦ Остров)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Одесса, Левитана, 118/2</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Одесса, Преображенская, 45</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Полтава, ул. Мазепы 45</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Полтава, вул. Європейська 255</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>ТВ Полтава Небесной Сотни 10/19</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Полтава, Кременчуг</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Полтава, Халаменюка 7</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Рівне, ул. Киевская (ТЦ Арена), 67</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Рівне, просп. Миру,11</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Ровно, пр.Мира 11</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Ровно, Київська 67</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Тернополь, ул. Митрополита Шептицкого, 20</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Тернополь, Тарнавського 36</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Тернополь, Тернополь</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Харьков, ТВ Юбилейный 89</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Харьков, Стадионный 5а</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Харьков, пр-т. Александровский 156</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Харьков, Науки 64</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Харьков, Московский проспект, 256</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Харьков, Героев Сталинграда 179</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Харьков, вул.Дружби Народів 249/80</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Харьков, вул.Академіка Павлова 317 А</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Харків, вул. Академіка Павлова, 319</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, СД Клочковская 9а</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>ТВ Харьков, Полтавский Шлях 140</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Нетеченская 25</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Людвига Свободы 28</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>ТВ Харьков Героев Труда 29г</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Херсон, Французкая 55</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Херсон, Ушакова 45</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Херсон, ул. Некрасова, 29</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Херсон, Святых Кирилла и Мефодия 23</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Херсон, Новая Каховка</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Херсон, Некрасова 29</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Хмельницкий, ул. Трудовая (ТРЦ WOODMALL), 6А</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Хмельницкий, ул. Каменецкая (ТГРК Лыбидь плаза), 21</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Черкаси, б-р Шевченка, 207</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>ТВ Черкаси Смилянская 45</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>ТВ Чернигов Кирпоноса 26</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Кривой Рог, ТВ Лермонтова 22</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Содружества 66А</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Космонавтов 3а</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Кривой Рог, Волгоградская 9</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Южный, пр-т Героев Обороны 3.</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Южный, Григорьевского Десанта,3</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Сумы, ул.Харьковская 2/1</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Сумы, ул.Кооперативная 1</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Суми, вул. 9 травня, 13,</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Сумы, Лушпы 10/1</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Попова 28</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>ТВ Кропивницкий Бол Перспективная 47</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Павлоград ул. Горького 164- ТВ</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>ТВ Олександрія Соборний 100а</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>ТВ Ужгород площа Шендора Петефі 17</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Ужгород, ТВ пл.Шандора Петефі 17</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Ужгород, ТВ вул. Заньковецької 70</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Ужгород, Мукачево вул.Духновича 22</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>ТВ Черновцы вул.Незалежності 119</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Черновцы, Чёрнівці Університетська 6</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Черновцы, Незалежності 119</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Черновцы, Університетська 6</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Хмельницький, Трудова 6</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Хмельницький, Кам'янецька 21</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Івано-Франківськ, вул. Січових Стрільців 68</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Івано-Франківськ, вул. Бельведерська, 27Б</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск, полоща Шевченка 14</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Ивано-Франковск, Коломия, пл.Шевченка 14</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Белая Церковь, ул. Ярослава Мудрого, 10</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Борисполь, ул. Киевский Шлях (ТЦ PARK TOWN), 67</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>ТВ Мукачево, вул. Духновича 22</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Володимир-Волинський, Ковельська 71</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Нововолинськ, Перемоги 2а</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Шостка, Свободы 35</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Славянск, шелковичная 12</t>
+  </si>
+  <si>
+    <t>Курьер Розетка</t>
   </si>
   <si>
     <t>333199863</t>
   </si>
   <si>
-    <t>825865114</t>
-  </si>
-  <si>
-    <t>678155087</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Николаев</t>
-  </si>
-  <si>
-    <t>678461559</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Мариуполь</t>
-  </si>
-  <si>
-    <t>546802359</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Львов</t>
-  </si>
-  <si>
-    <t>844782656</t>
-  </si>
-  <si>
-    <t>555435397</t>
-  </si>
-  <si>
-    <t>715435244</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Луцк</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Каменское</t>
-  </si>
-  <si>
-    <t>333650644</t>
-  </si>
-  <si>
-    <t>401848467</t>
-  </si>
-  <si>
-    <t>888150500</t>
-  </si>
-  <si>
-    <t>554546948</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Запорожье</t>
-  </si>
-  <si>
-    <t>525934688</t>
-  </si>
-  <si>
-    <t>264262717</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Житомир</t>
-  </si>
-  <si>
-    <t>1000320387</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Днепр</t>
-  </si>
-  <si>
-    <t>766808380</t>
-  </si>
-  <si>
-    <t>497774981</t>
-  </si>
-  <si>
-    <t>420067420</t>
-  </si>
-  <si>
-    <t>556769266</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Винница</t>
-  </si>
-  <si>
-    <t>1240678295</t>
-  </si>
-  <si>
-    <t>id_city</t>
-  </si>
-  <si>
-    <t>id_adr</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Южный, Григорьевского Десанта,3</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Южный, пр-т Героев Обороны 3.</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Волгоградская 9</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Космонавтов 3а</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Кривой Рог, Содружества 66А</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Кривой Рог, ТВ Лермонтова 22</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>ТВ Чернигов Кирпоноса 26</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>ТВ Черкаси Смилянская 45</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Черкаси, б-р Шевченка, 207</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Хмельницкий, ул. Каменецкая (ТГРК Лыбидь плаза), 21</t>
-  </si>
-  <si>
-    <t>Днепр, вул. Паникахи, 61а</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Хмельницкий, ул. Трудовая (ТРЦ WOODMALL), 6А</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Херсон пр. Св. Кирилла и Мифодия, 23</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Херсон, Некрасова 29</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Херсон, Новая Каховка</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Херсон, пр-т Ушакова (ТРЦ Украина), 45</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Херсон, Святых Кирилла и Мефодия 23</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Херсон, ул. Некрасова, 29</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Херсон, Ушакова 45</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Херсон, Французкая 55</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Героев Труда 29г</t>
-  </si>
-  <si>
-    <t>Днепр, просп. Б. Хмельницького,123</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Людвига Свободы 28</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>ТВ Харьков Нетеченская 25</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, Полтавский Шлях 140</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>ТВ Харьков, СД Клочковская 9а</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Харків, вул. Академіка Павлова, 319</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Харьков, вул.Академіка Павлова 317 А</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Харьков, вул.Дружби Народів 249/80</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Харьков, Героев Сталинграда 179</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Харьков, Московский проспект, 256</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Харьков, Науки 64</t>
-  </si>
-  <si>
-    <t>Днепр, просп. Поля, 8а</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Харьков, пр-т. Александровский 156</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Харьков, Стадионный 5а</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Харьков, ТВ Юбилейный 89</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Харьков, ул. Ярослава Мудрого, 30/32</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Тернополь, ул. Митрополита Шептицкого, 20</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Рівне, просп. Миру,11</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Рівне, ул. Киевская (ТЦ Арена), 67</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>ТВ Полтава Небесной Сотни 10/19</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Полтава, вул. Європейська 255</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Полтава, ул. Мазепы 45</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Гагарина (ТЦ Нагорка), 8а</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Одесса, Преображенская, 45</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Одесса, Левитана, 118/2</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Одесса, Новощепной ряд, 2 (ТЦ Остров)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Одеса, вул. Навощенный ряд 2</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Одеса, вул. Преображенская, 45а</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Одеса, пр-т Адмиральский, 1</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Одесса Тираспольское Шоссе 22</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Одесса ул. Левитана, 118</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Одесса, Киевское шоссе 27 (Кросс-Док)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Одесса, пер. Семафорный, 4Т (рядом с ТЦ Fontan Sky)</t>
-  </si>
-  <si>
-    <t>ТВ Винница Космонавтов 49</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Одесса, пр-т Академика Глушко (ТРЦ ALSU), 17</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Академика Заболотного, 52</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Академика Сахарова, 1Б</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Одесса, ул. Ивана и Юрия Лип, 13А</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Николаев. Героев Украины 20к</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Николаев. Мира 56в/2</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>ТВ Николаев Центральный 171/2</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>ТВ Николаев, пр-т Богоявленский, 305</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Мариуполь, Запорожское шоссе (ТРЦ Порт CITY), 2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Мариуполь, Победа 32/42</t>
-  </si>
-  <si>
-    <t>ТВ Винница Коцюбинского 78а</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Мариуполь, Шевченко 89/105</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Маріуполь, пл. Перемоги, 72</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Львів, вул. Вагова, 2,</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Львів, вул. Стрийська, 85а</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Львов вул. пр. Шевченка 24</t>
-  </si>
-  <si>
-    <t>Львов, Володимира Великого 18</t>
-  </si>
-  <si>
-    <t>Львов, вул. вул. Черновола 57</t>
-  </si>
-  <si>
-    <t>Львов, вул. Городецкая 8</t>
-  </si>
-  <si>
-    <t>Львов, Зелена 301</t>
-  </si>
-  <si>
-    <t>Львов, пр-т Красной Калины (ТЦ Шувар), 36</t>
-  </si>
-  <si>
-    <t>ТВ Винница Пирогова 8</t>
-  </si>
-  <si>
-    <t>Львов, ул. Гетьмана Мазепы (СТРЦ Спартак), 1Б</t>
-  </si>
-  <si>
-    <t>Львов, ул. Кульпарковская(Victoria Gardens), 226А</t>
-  </si>
-  <si>
-    <t>м.Львів, вул. Зелена,301</t>
-  </si>
-  <si>
-    <t>ТВ Луцк Воли 15</t>
-  </si>
-  <si>
-    <t>Каменское, пр-т Свободы, 53</t>
-  </si>
-  <si>
-    <t>Каменское, Строителей 27А</t>
-  </si>
-  <si>
-    <t>Запорожье, Бородинская 9</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный (ТЦ Украина), 147</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный, 222</t>
-  </si>
-  <si>
-    <t>Запорожье, пр-т Соборный, 44</t>
-  </si>
-  <si>
-    <t>ТВ Винница, ул. Гоголя, 1</t>
-  </si>
-  <si>
-    <t>Запорожье, ул. Сытова, 4А</t>
-  </si>
-  <si>
-    <t>Житомир, пл. Соборний, 7/1</t>
-  </si>
-  <si>
-    <t>Житомир, пров. 1й Винокурний, 63</t>
-  </si>
-  <si>
-    <t>ТВ Житомир Киевская 106</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Героев (ТЦ KODAK), 3</t>
-  </si>
-  <si>
-    <t>Днепр, пр-т Дмитрия Яворницкого, 100</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Черновцы, Університетська 6</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>Черновцы, Незалежності 119</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>Черновцы, Чёрнівці Університетська 6</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>Полтава, Халаменюка 7</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Полтава, Кременчуг</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Сумы, Лушпы 10/1</t>
-  </si>
-  <si>
-    <t>Днепр, ТЦ Караван, вулиця Нижньодніпровська, 17</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Нововолинськ, Перемоги 2а</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Володимир-Волинський, Ковельська 71</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Луцк, Привокзальна 10б</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Ужгород, Мукачево вул.Духновича 22</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Тернополь, Тернополь</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Ровно, Київська 67</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Ровно, пр.Мира 11</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Ломаная, 2</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Ужгород, ТВ вул. Заньковецької 70</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>Ужгород, ТВ пл.Шандора Петефі 17</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>Ивано-Франковск, Коломия, пл.Шевченка 14</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Ивано-Франковск, полоща Шевченка 14</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>Тернополь, Тарнавського 36</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>Борисполь, ул. Киевский Шлях (ТЦ PARK TOWN), 67</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>Белая Церковь, ул. Ярослава Мудрого, 10</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Івано-Франківськ, вул. Бельведерська, 27Б</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>Івано-Франківськ, вул. Січових Стрільців 68</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Хмельницький, Кам'янецька 21</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Титова (ТЦ Апполо), 36</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Хмельницький, Трудова 6</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>ТВ Черновцы вул.Незалежності 119</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>ТВ Ужгород площа Шендора Петефі 17</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>ТВ Олександрія Соборний 100а</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Павлоград ул. Горького 164- ТВ</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>ТВ Кропивницкий Бол Перспективная 47</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>ТВ Кропивницкий Попова 28</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Суми, вул. 9 травня, 13,</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Сумы, ул.Кооперативная 1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Сумы, ул.Харьковская 2/1</t>
-  </si>
-  <si>
-    <t>Днепр, ул. Шолохова, 7</t>
-  </si>
-  <si>
-    <t>ТВ Винница, ул. Зодчих 2а</t>
-  </si>
-  <si>
-    <t>Курьер Розетка</t>
-  </si>
-  <si>
     <t>ТОВ «БСК Логістик»</t>
   </si>
   <si>
@@ -1136,12 +1160,12 @@
     <t>Мост Экспресс</t>
   </si>
   <si>
-    <t>665334580</t>
-  </si>
-  <si>
     <t>422501742</t>
   </si>
   <si>
+    <t>774032517</t>
+  </si>
+  <si>
     <t>ТДВ Харьківське АТП №16363</t>
   </si>
   <si>
@@ -1178,22 +1202,10 @@
     <t>2т</t>
   </si>
   <si>
-    <t>Шостка</t>
-  </si>
-  <si>
-    <t>Мукачево</t>
-  </si>
-  <si>
-    <t>Шостка, Свободы 35</t>
-  </si>
-  <si>
-    <t>ТВ Мукачево, вул. Духновича 22</t>
-  </si>
-  <si>
-    <t>Славянск</t>
-  </si>
-  <si>
-    <t>Славянск, шелковичная 12</t>
+    <t>ТВ Новоград-Волинський Пушкина 4а</t>
+  </si>
+  <si>
+    <t>Новоград-Волинський</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1546,17 +1560,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I79" sqref="I78:I79"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,285 +1585,285 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -1858,153 +1871,153 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -2012,10 +2025,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2023,134 +2036,134 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,405 +2179,418 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
         <v>47</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>385</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>385</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>384</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
+      <c r="A88" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" t="s">
-        <v>388</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C88">
-    <sortCondition ref="A2:A88"/>
-  </sortState>
+  <autoFilter ref="A1:C93" xr:uid="{91C6E4F4-14EC-4204-B8DA-A7A06E0C5AE6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2572,959 +2598,959 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
         <v>210</v>
-      </c>
-      <c r="C60" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3532,10 +3558,10 @@
         <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3543,10 +3569,10 @@
         <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,10 +3580,10 @@
         <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3565,10 +3591,10 @@
         <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3576,10 +3602,10 @@
         <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3587,10 +3613,10 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3598,10 +3624,10 @@
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,483 +3635,502 @@
         <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="C107" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="C109" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C112" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C113" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C120" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="C122" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C124" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C126" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="C128" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C130" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="C132" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="C133" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="C134" t="s">
-        <v>299</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="C135" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>258</v>
+      <c r="A136" t="s">
+        <v>122</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>361</v>
       </c>
       <c r="C136" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
+      <c r="A137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C137" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D135">
-    <sortCondition ref="A2:A135"/>
-    <sortCondition ref="B2:B135"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4101,1208 +4146,1421 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" t="s">
         <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C85" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" t="s">
         <v>72</v>
-      </c>
-      <c r="B99" t="s">
-        <v>369</v>
-      </c>
-      <c r="C99" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>372</v>
+        <v>376</v>
+      </c>
+      <c r="C104" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
         <v>376</v>
       </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="C109" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>376</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" t="s">
+        <v>376</v>
+      </c>
+      <c r="C115" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
         <v>380</v>
       </c>
-      <c r="C112" t="s">
-        <v>12</v>
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" t="s">
+        <v>380</v>
+      </c>
+      <c r="C120" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>381</v>
+      </c>
+      <c r="C121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B123" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5331,26 +5589,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitala\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7002B867-A2A1-4F0C-8E55-C1F9D4635DC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A83F4-A377-43EB-9239-289001C65D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,12 @@
     <sheet name="delivery" sheetId="4" r:id="rId4"/>
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">city!$A$1:$C$93</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="394">
   <si>
     <t>id</t>
   </si>
@@ -1202,10 +1199,13 @@
     <t>2т</t>
   </si>
   <si>
+    <t>Новоград-Волинський</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>ТВ Новоград-Волинський Пушкина 4а</t>
-  </si>
-  <si>
-    <t>Новоград-Волинський</t>
   </si>
 </sst>
 </file>
@@ -1548,9 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1560,16 +1558,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,7 +2533,7 @@
         <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C88" s="1"/>
     </row>
@@ -2563,24 +2562,46 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C93" xr:uid="{91C6E4F4-14EC-4204-B8DA-A7A06E0C5AE6}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G144" sqref="G142:G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2887,7 +2908,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>155</v>
@@ -2898,7 +2919,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
         <v>156</v>
@@ -2909,7 +2930,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>157</v>
@@ -2920,7 +2941,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>158</v>
@@ -2931,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
         <v>159</v>
@@ -2942,7 +2963,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
         <v>160</v>
@@ -2953,7 +2974,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
         <v>161</v>
@@ -2964,7 +2985,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>162</v>
@@ -2975,7 +2996,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
         <v>163</v>
@@ -2986,7 +3007,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
         <v>164</v>
@@ -2997,7 +3018,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
         <v>166</v>
@@ -3008,7 +3029,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
         <v>168</v>
@@ -3019,7 +3040,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C40" t="s">
         <v>170</v>
@@ -3030,7 +3051,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
         <v>172</v>
@@ -3041,7 +3062,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
         <v>174</v>
@@ -3052,7 +3073,7 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
         <v>176</v>
@@ -3063,7 +3084,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
         <v>178</v>
@@ -3074,7 +3095,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
         <v>180</v>
@@ -3085,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
         <v>182</v>
@@ -3096,7 +3117,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
         <v>184</v>
@@ -3107,7 +3128,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
         <v>186</v>
@@ -3118,7 +3139,7 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
         <v>188</v>
@@ -3129,7 +3150,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C50" t="s">
         <v>190</v>
@@ -3140,7 +3161,7 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
         <v>192</v>
@@ -3151,7 +3172,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
         <v>194</v>
@@ -3162,7 +3183,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
         <v>196</v>
@@ -3173,7 +3194,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
         <v>198</v>
@@ -3184,7 +3205,7 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
         <v>200</v>
@@ -3195,7 +3216,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
         <v>202</v>
@@ -3206,7 +3227,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
         <v>204</v>
@@ -3217,7 +3238,7 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C58" t="s">
         <v>206</v>
@@ -3228,7 +3249,7 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
         <v>208</v>
@@ -3239,7 +3260,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C60" t="s">
         <v>210</v>
@@ -3250,7 +3271,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
         <v>212</v>
@@ -3261,7 +3282,7 @@
         <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
         <v>214</v>
@@ -3272,7 +3293,7 @@
         <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
         <v>216</v>
@@ -3283,7 +3304,7 @@
         <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C64" t="s">
         <v>218</v>
@@ -3294,7 +3315,7 @@
         <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
         <v>220</v>
@@ -3305,7 +3326,7 @@
         <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
         <v>222</v>
@@ -3316,7 +3337,7 @@
         <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C67" t="s">
         <v>224</v>
@@ -3327,7 +3348,7 @@
         <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s">
         <v>226</v>
@@ -3338,7 +3359,7 @@
         <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
         <v>228</v>
@@ -3349,7 +3370,7 @@
         <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
         <v>230</v>
@@ -3360,7 +3381,7 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
         <v>232</v>
@@ -3371,7 +3392,7 @@
         <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
         <v>234</v>
@@ -3382,7 +3403,7 @@
         <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
         <v>236</v>
@@ -3393,7 +3414,7 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
         <v>238</v>
@@ -3404,7 +3425,7 @@
         <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C75" t="s">
         <v>240</v>
@@ -3415,7 +3436,7 @@
         <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C76" t="s">
         <v>242</v>
@@ -3426,7 +3447,7 @@
         <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C77" t="s">
         <v>244</v>
@@ -3437,7 +3458,7 @@
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C78" t="s">
         <v>246</v>
@@ -3448,7 +3469,7 @@
         <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
         <v>248</v>
@@ -3459,7 +3480,7 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
         <v>250</v>
@@ -3470,7 +3491,7 @@
         <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C81" t="s">
         <v>252</v>
@@ -3481,7 +3502,7 @@
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
         <v>254</v>
@@ -3492,7 +3513,7 @@
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C83" t="s">
         <v>256</v>
@@ -3503,7 +3524,7 @@
         <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s">
         <v>258</v>
@@ -3514,7 +3535,7 @@
         <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C85" t="s">
         <v>260</v>
@@ -3525,7 +3546,7 @@
         <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C86" t="s">
         <v>262</v>
@@ -3536,7 +3557,7 @@
         <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C87" t="s">
         <v>264</v>
@@ -3547,7 +3568,7 @@
         <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
         <v>266</v>
@@ -3558,7 +3579,7 @@
         <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
         <v>268</v>
@@ -3569,7 +3590,7 @@
         <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
         <v>270</v>
@@ -3580,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
         <v>272</v>
@@ -3591,7 +3612,7 @@
         <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>274</v>
@@ -3602,7 +3623,7 @@
         <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C93" t="s">
         <v>276</v>
@@ -3613,7 +3634,7 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
         <v>278</v>
@@ -3624,7 +3645,7 @@
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s">
         <v>280</v>
@@ -3635,7 +3656,7 @@
         <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C96" t="s">
         <v>282</v>
@@ -3646,7 +3667,7 @@
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C97" t="s">
         <v>284</v>
@@ -3657,7 +3678,7 @@
         <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C98" t="s">
         <v>286</v>
@@ -3668,7 +3689,7 @@
         <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C99" t="s">
         <v>288</v>
@@ -3679,7 +3700,7 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C100" t="s">
         <v>290</v>
@@ -3690,7 +3711,7 @@
         <v>73</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C101" t="s">
         <v>292</v>
@@ -3701,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C102" t="s">
         <v>294</v>
@@ -3712,7 +3733,7 @@
         <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
         <v>296</v>
@@ -3723,7 +3744,7 @@
         <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C104" t="s">
         <v>298</v>
@@ -3734,7 +3755,7 @@
         <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
         <v>300</v>
@@ -3745,7 +3766,7 @@
         <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C106" t="s">
         <v>302</v>
@@ -3756,7 +3777,7 @@
         <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C107" t="s">
         <v>304</v>
@@ -3767,7 +3788,7 @@
         <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C108" t="s">
         <v>306</v>
@@ -3778,7 +3799,7 @@
         <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C109" t="s">
         <v>308</v>
@@ -3789,7 +3810,7 @@
         <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
         <v>310</v>
@@ -3800,7 +3821,7 @@
         <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C111" t="s">
         <v>312</v>
@@ -3811,7 +3832,7 @@
         <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C112" t="s">
         <v>314</v>
@@ -3822,7 +3843,7 @@
         <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C113" t="s">
         <v>316</v>
@@ -3833,7 +3854,7 @@
         <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C114" t="s">
         <v>318</v>
@@ -3844,7 +3865,7 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="C115" t="s">
         <v>320</v>
@@ -3855,7 +3876,7 @@
         <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
         <v>322</v>
@@ -3866,7 +3887,7 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C117" t="s">
         <v>324</v>
@@ -3877,7 +3898,7 @@
         <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C118" t="s">
         <v>326</v>
@@ -3888,7 +3909,7 @@
         <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
         <v>328</v>
@@ -3899,7 +3920,7 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C120" t="s">
         <v>330</v>
@@ -3910,7 +3931,7 @@
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C121" t="s">
         <v>332</v>
@@ -3921,7 +3942,7 @@
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
         <v>334</v>
@@ -3932,7 +3953,7 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>229</v>
       </c>
       <c r="C123" t="s">
         <v>336</v>
@@ -3943,7 +3964,7 @@
         <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="C124" t="s">
         <v>338</v>
@@ -3954,7 +3975,7 @@
         <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C125" t="s">
         <v>340</v>
@@ -3965,7 +3986,7 @@
         <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>341</v>
+        <v>154</v>
       </c>
       <c r="C126" t="s">
         <v>342</v>
@@ -3976,7 +3997,7 @@
         <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s">
         <v>344</v>
@@ -3987,7 +4008,7 @@
         <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C128" t="s">
         <v>346</v>
@@ -3998,7 +4019,7 @@
         <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C129" t="s">
         <v>348</v>
@@ -4009,7 +4030,7 @@
         <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C130" t="s">
         <v>350</v>
@@ -4020,7 +4041,7 @@
         <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
         <v>352</v>
@@ -4031,7 +4052,7 @@
         <v>113</v>
       </c>
       <c r="B132" t="s">
-        <v>353</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
         <v>354</v>
@@ -4042,7 +4063,7 @@
         <v>115</v>
       </c>
       <c r="B133" t="s">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="C133" t="s">
         <v>356</v>
@@ -4053,7 +4074,7 @@
         <v>117</v>
       </c>
       <c r="B134" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C134" t="s">
         <v>358</v>
@@ -4064,7 +4085,7 @@
         <v>119</v>
       </c>
       <c r="B135" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s">
         <v>360</v>
@@ -4075,46 +4096,25 @@
         <v>122</v>
       </c>
       <c r="B136" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C136" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>311</v>
+      <c r="B137" t="s">
+        <v>392</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4122,15 +4122,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5572,7 +5571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/mybot/project/resources/settings/logo.xlsx
+++ b/mybot/project/resources/settings/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitala\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A83F4-A377-43EB-9239-289001C65D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5380DECD-4AEF-4386-8DA9-3CB666015980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="delivery" sheetId="4" r:id="rId4"/>
     <sheet name="weight" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">adr!$D$1:$D$136</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -1558,15 +1561,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2537,59 +2539,8 @@
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2597,11 +2548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G144" sqref="G142:G144"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4109,11 +4063,12 @@
       <c r="B137" t="s">
         <v>392</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D136" xr:uid="{8AD182FB-EE28-43AC-BDE4-67440D085ECD}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4122,14 +4077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
-    </sheetView>
+    <sheetView topLeftCell="A100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,9 +5523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
